--- a/steamcase/user/userQueryKeywordscase.xlsx
+++ b/steamcase/user/userQueryKeywordscase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53E47CEF-50BF-4DC5-93A1-65357C24230A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5A3FEC8-3253-4691-8157-73C391B583A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,16 +67,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户按分类查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"currentPage":1
 "pageSize":10
 "entryName":"线上课堂"
 "phoneNo":"18916899938"
 "position":"05"
-"pageType":</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户按分类查询</t>
+"pageType":1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,14 +505,14 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/user/userQueryKeywordscase.xlsx
+++ b/steamcase/user/userQueryKeywordscase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5A3FEC8-3253-4691-8157-73C391B583A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{69C2E219-AF61-44F7-9C73-0734534E08FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,8 @@
 "entryName":"线上课堂"
 "phoneNo":"18916899938"
 "position":"05"
-"pageType":1</t>
+"pageType":1
+"entryId":75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
